--- a/datasets/meal_dataset.xlsx
+++ b/datasets/meal_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\petecastle\MSDS\Programming for Data Science\meal-plan-generator\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE63FCB-6AE1-4BCA-8801-BD7360CEAD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E515C08D-7364-4F5D-ACE5-7F0762011FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meals with SKUs" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2285" uniqueCount="1009">
   <si>
     <t>SKU</t>
   </si>
@@ -2605,6 +2605,450 @@
   </si>
   <si>
     <t>- Interested in meals rich in fruits, vegetables, grains, nuts, and seeds, without meat-based ingredients</t>
+  </si>
+  <si>
+    <t>N001</t>
+  </si>
+  <si>
+    <t>N002</t>
+  </si>
+  <si>
+    <t>N003</t>
+  </si>
+  <si>
+    <t>N004</t>
+  </si>
+  <si>
+    <t>N005</t>
+  </si>
+  <si>
+    <t>N006</t>
+  </si>
+  <si>
+    <t>N007</t>
+  </si>
+  <si>
+    <t>N008</t>
+  </si>
+  <si>
+    <t>N009</t>
+  </si>
+  <si>
+    <t>N010</t>
+  </si>
+  <si>
+    <t>N011</t>
+  </si>
+  <si>
+    <t>N012</t>
+  </si>
+  <si>
+    <t>N013</t>
+  </si>
+  <si>
+    <t>N014</t>
+  </si>
+  <si>
+    <t>N015</t>
+  </si>
+  <si>
+    <t>N016</t>
+  </si>
+  <si>
+    <t>N017</t>
+  </si>
+  <si>
+    <t>N018</t>
+  </si>
+  <si>
+    <t>N019</t>
+  </si>
+  <si>
+    <t>N020</t>
+  </si>
+  <si>
+    <t>N021</t>
+  </si>
+  <si>
+    <t>N022</t>
+  </si>
+  <si>
+    <t>N023</t>
+  </si>
+  <si>
+    <t>N024</t>
+  </si>
+  <si>
+    <t>N025</t>
+  </si>
+  <si>
+    <t>N026</t>
+  </si>
+  <si>
+    <t>N027</t>
+  </si>
+  <si>
+    <t>N028</t>
+  </si>
+  <si>
+    <t>N029</t>
+  </si>
+  <si>
+    <t>N030</t>
+  </si>
+  <si>
+    <t>N031</t>
+  </si>
+  <si>
+    <t>N032</t>
+  </si>
+  <si>
+    <t>N033</t>
+  </si>
+  <si>
+    <t>N034</t>
+  </si>
+  <si>
+    <t>N035</t>
+  </si>
+  <si>
+    <t>N036</t>
+  </si>
+  <si>
+    <t>N037</t>
+  </si>
+  <si>
+    <t>N038</t>
+  </si>
+  <si>
+    <t>N039</t>
+  </si>
+  <si>
+    <t>N040</t>
+  </si>
+  <si>
+    <t>N041</t>
+  </si>
+  <si>
+    <t>N042</t>
+  </si>
+  <si>
+    <t>N043</t>
+  </si>
+  <si>
+    <t>N044</t>
+  </si>
+  <si>
+    <t>N045</t>
+  </si>
+  <si>
+    <t>N046</t>
+  </si>
+  <si>
+    <t>N047</t>
+  </si>
+  <si>
+    <t>N048</t>
+  </si>
+  <si>
+    <t>N049</t>
+  </si>
+  <si>
+    <t>N050</t>
+  </si>
+  <si>
+    <t>N051</t>
+  </si>
+  <si>
+    <t>N052</t>
+  </si>
+  <si>
+    <t>N053</t>
+  </si>
+  <si>
+    <t>N054</t>
+  </si>
+  <si>
+    <t>N055</t>
+  </si>
+  <si>
+    <t>N056</t>
+  </si>
+  <si>
+    <t>N057</t>
+  </si>
+  <si>
+    <t>N058</t>
+  </si>
+  <si>
+    <t>N059</t>
+  </si>
+  <si>
+    <t>N060</t>
+  </si>
+  <si>
+    <t>N061</t>
+  </si>
+  <si>
+    <t>N062</t>
+  </si>
+  <si>
+    <t>N063</t>
+  </si>
+  <si>
+    <t>N064</t>
+  </si>
+  <si>
+    <t>N065</t>
+  </si>
+  <si>
+    <t>N066</t>
+  </si>
+  <si>
+    <t>N067</t>
+  </si>
+  <si>
+    <t>N068</t>
+  </si>
+  <si>
+    <t>N069</t>
+  </si>
+  <si>
+    <t>N071</t>
+  </si>
+  <si>
+    <t>N072</t>
+  </si>
+  <si>
+    <t>N073</t>
+  </si>
+  <si>
+    <t>N074</t>
+  </si>
+  <si>
+    <t>N075</t>
+  </si>
+  <si>
+    <t>N076</t>
+  </si>
+  <si>
+    <t>N077</t>
+  </si>
+  <si>
+    <t>N078</t>
+  </si>
+  <si>
+    <t>N079</t>
+  </si>
+  <si>
+    <t>N080</t>
+  </si>
+  <si>
+    <t>N081</t>
+  </si>
+  <si>
+    <t>N082</t>
+  </si>
+  <si>
+    <t>N083</t>
+  </si>
+  <si>
+    <t>N084</t>
+  </si>
+  <si>
+    <t>N085</t>
+  </si>
+  <si>
+    <t>N086</t>
+  </si>
+  <si>
+    <t>N087</t>
+  </si>
+  <si>
+    <t>N088</t>
+  </si>
+  <si>
+    <t>N089</t>
+  </si>
+  <si>
+    <t>N090</t>
+  </si>
+  <si>
+    <t>N091</t>
+  </si>
+  <si>
+    <t>N092</t>
+  </si>
+  <si>
+    <t>N093</t>
+  </si>
+  <si>
+    <t>N094</t>
+  </si>
+  <si>
+    <t>N095</t>
+  </si>
+  <si>
+    <t>N096</t>
+  </si>
+  <si>
+    <t>N097</t>
+  </si>
+  <si>
+    <t>N098</t>
+  </si>
+  <si>
+    <t>N099</t>
+  </si>
+  <si>
+    <t>N100</t>
+  </si>
+  <si>
+    <t>N101</t>
+  </si>
+  <si>
+    <t>N102</t>
+  </si>
+  <si>
+    <t>N103</t>
+  </si>
+  <si>
+    <t>N104</t>
+  </si>
+  <si>
+    <t>N105</t>
+  </si>
+  <si>
+    <t>N106</t>
+  </si>
+  <si>
+    <t>N107</t>
+  </si>
+  <si>
+    <t>N108</t>
+  </si>
+  <si>
+    <t>N109</t>
+  </si>
+  <si>
+    <t>N110</t>
+  </si>
+  <si>
+    <t>N111</t>
+  </si>
+  <si>
+    <t>N112</t>
+  </si>
+  <si>
+    <t>N113</t>
+  </si>
+  <si>
+    <t>N114</t>
+  </si>
+  <si>
+    <t>N115</t>
+  </si>
+  <si>
+    <t>N116</t>
+  </si>
+  <si>
+    <t>N117</t>
+  </si>
+  <si>
+    <t>N118</t>
+  </si>
+  <si>
+    <t>N119</t>
+  </si>
+  <si>
+    <t>N120</t>
+  </si>
+  <si>
+    <t>N121</t>
+  </si>
+  <si>
+    <t>N122</t>
+  </si>
+  <si>
+    <t>N123</t>
+  </si>
+  <si>
+    <t>N124</t>
+  </si>
+  <si>
+    <t>N125</t>
+  </si>
+  <si>
+    <t>N126</t>
+  </si>
+  <si>
+    <t>N127</t>
+  </si>
+  <si>
+    <t>N128</t>
+  </si>
+  <si>
+    <t>N129</t>
+  </si>
+  <si>
+    <t>N130</t>
+  </si>
+  <si>
+    <t>N131</t>
+  </si>
+  <si>
+    <t>N132</t>
+  </si>
+  <si>
+    <t>N133</t>
+  </si>
+  <si>
+    <t>N134</t>
+  </si>
+  <si>
+    <t>N135</t>
+  </si>
+  <si>
+    <t>N136</t>
+  </si>
+  <si>
+    <t>N137</t>
+  </si>
+  <si>
+    <t>N138</t>
+  </si>
+  <si>
+    <t>N139</t>
+  </si>
+  <si>
+    <t>N140</t>
+  </si>
+  <si>
+    <t>N141</t>
+  </si>
+  <si>
+    <t>N142</t>
+  </si>
+  <si>
+    <t>N143</t>
+  </si>
+  <si>
+    <t>N144</t>
+  </si>
+  <si>
+    <t>N145</t>
+  </si>
+  <si>
+    <t>N146</t>
+  </si>
+  <si>
+    <t>N147</t>
+  </si>
+  <si>
+    <t>N148</t>
+  </si>
+  <si>
+    <t>Non-Organic</t>
   </si>
 </sst>
 </file>
@@ -2984,20 +3428,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G415"/>
+  <dimension ref="A1:G562"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A447" workbookViewId="0">
+      <selection activeCell="Q421" sqref="Q421"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3020,7 +3464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3043,7 +3487,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3066,7 +3510,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3089,7 +3533,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -3112,7 +3556,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -3135,7 +3579,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3158,7 +3602,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -3181,7 +3625,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -3204,7 +3648,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3227,7 +3671,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -3250,7 +3694,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3273,7 +3717,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -3296,7 +3740,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -3319,7 +3763,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -3342,7 +3786,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -3365,7 +3809,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -3388,7 +3832,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -3411,7 +3855,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -3434,7 +3878,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -3457,7 +3901,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -3480,7 +3924,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -3503,7 +3947,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -3526,7 +3970,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -3549,7 +3993,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -3572,7 +4016,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -3595,7 +4039,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -3618,7 +4062,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -3641,7 +4085,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -3664,7 +4108,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -3687,7 +4131,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -3710,7 +4154,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -3733,7 +4177,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -3756,7 +4200,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -3779,7 +4223,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -3802,7 +4246,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -3825,7 +4269,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -3848,7 +4292,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -3871,7 +4315,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -3894,7 +4338,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -3917,7 +4361,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -3940,7 +4384,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -3963,7 +4407,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -3986,7 +4430,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -4009,7 +4453,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -4032,7 +4476,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -4055,7 +4499,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -4078,7 +4522,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -4101,7 +4545,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -4124,7 +4568,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -4147,7 +4591,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -4170,7 +4614,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -4193,7 +4637,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -4216,7 +4660,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -4239,7 +4683,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -4262,7 +4706,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -4285,7 +4729,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -4308,7 +4752,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -4331,7 +4775,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -4354,7 +4798,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -4377,7 +4821,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -4400,7 +4844,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -4423,7 +4867,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -4446,7 +4890,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -4469,7 +4913,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -4492,7 +4936,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>71</v>
       </c>
@@ -4515,7 +4959,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>72</v>
       </c>
@@ -4538,7 +4982,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -4561,7 +5005,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -4584,7 +5028,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -4607,7 +5051,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -4630,7 +5074,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -4653,7 +5097,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>78</v>
       </c>
@@ -4676,7 +5120,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -4699,7 +5143,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -4722,7 +5166,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -4745,7 +5189,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -4768,7 +5212,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>83</v>
       </c>
@@ -4791,7 +5235,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>84</v>
       </c>
@@ -4814,7 +5258,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>85</v>
       </c>
@@ -4837,7 +5281,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>86</v>
       </c>
@@ -4860,7 +5304,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -4883,7 +5327,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -4906,7 +5350,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>89</v>
       </c>
@@ -4929,7 +5373,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>90</v>
       </c>
@@ -4952,7 +5396,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>91</v>
       </c>
@@ -4975,7 +5419,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>92</v>
       </c>
@@ -4998,7 +5442,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>93</v>
       </c>
@@ -5021,7 +5465,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>94</v>
       </c>
@@ -5044,7 +5488,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -5067,7 +5511,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -5090,7 +5534,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>97</v>
       </c>
@@ -5113,7 +5557,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>98</v>
       </c>
@@ -5136,7 +5580,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>99</v>
       </c>
@@ -5159,7 +5603,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>100</v>
       </c>
@@ -5182,7 +5626,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>101</v>
       </c>
@@ -5205,7 +5649,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>102</v>
       </c>
@@ -5228,7 +5672,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>103</v>
       </c>
@@ -5251,7 +5695,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>104</v>
       </c>
@@ -5274,7 +5718,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>105</v>
       </c>
@@ -5297,7 +5741,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>106</v>
       </c>
@@ -5320,7 +5764,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>107</v>
       </c>
@@ -5343,7 +5787,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>108</v>
       </c>
@@ -5366,7 +5810,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>109</v>
       </c>
@@ -5389,7 +5833,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>110</v>
       </c>
@@ -5412,7 +5856,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>111</v>
       </c>
@@ -5435,7 +5879,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>112</v>
       </c>
@@ -5458,7 +5902,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>113</v>
       </c>
@@ -5481,7 +5925,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>114</v>
       </c>
@@ -5504,7 +5948,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>115</v>
       </c>
@@ -5527,7 +5971,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>116</v>
       </c>
@@ -5550,7 +5994,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>117</v>
       </c>
@@ -5573,7 +6017,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>118</v>
       </c>
@@ -5596,7 +6040,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>119</v>
       </c>
@@ -5619,7 +6063,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>120</v>
       </c>
@@ -5642,7 +6086,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>121</v>
       </c>
@@ -5665,7 +6109,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>122</v>
       </c>
@@ -5688,7 +6132,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>123</v>
       </c>
@@ -5711,7 +6155,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>124</v>
       </c>
@@ -5734,7 +6178,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>125</v>
       </c>
@@ -5757,7 +6201,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>126</v>
       </c>
@@ -5780,7 +6224,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>127</v>
       </c>
@@ -5803,7 +6247,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>128</v>
       </c>
@@ -5826,7 +6270,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>129</v>
       </c>
@@ -5849,7 +6293,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>130</v>
       </c>
@@ -5872,7 +6316,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>131</v>
       </c>
@@ -5895,7 +6339,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>132</v>
       </c>
@@ -5918,7 +6362,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>133</v>
       </c>
@@ -5941,7 +6385,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>134</v>
       </c>
@@ -5964,7 +6408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>135</v>
       </c>
@@ -5987,7 +6431,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>136</v>
       </c>
@@ -6010,7 +6454,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>137</v>
       </c>
@@ -6033,7 +6477,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>138</v>
       </c>
@@ -6056,7 +6500,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>139</v>
       </c>
@@ -6079,7 +6523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>140</v>
       </c>
@@ -6102,7 +6546,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>141</v>
       </c>
@@ -6125,7 +6569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>142</v>
       </c>
@@ -6148,7 +6592,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>143</v>
       </c>
@@ -6171,7 +6615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>144</v>
       </c>
@@ -6194,7 +6638,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>145</v>
       </c>
@@ -6217,7 +6661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>146</v>
       </c>
@@ -6240,7 +6684,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>147</v>
       </c>
@@ -6263,7 +6707,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>148</v>
       </c>
@@ -6286,7 +6730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>149</v>
       </c>
@@ -6309,7 +6753,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>150</v>
       </c>
@@ -6332,7 +6776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>151</v>
       </c>
@@ -6355,7 +6799,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>152</v>
       </c>
@@ -6378,7 +6822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>153</v>
       </c>
@@ -6401,7 +6845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>154</v>
       </c>
@@ -6424,7 +6868,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>155</v>
       </c>
@@ -6447,7 +6891,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>156</v>
       </c>
@@ -6470,7 +6914,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>157</v>
       </c>
@@ -6493,7 +6937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>158</v>
       </c>
@@ -6516,7 +6960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>159</v>
       </c>
@@ -6539,7 +6983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>160</v>
       </c>
@@ -6562,7 +7006,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>161</v>
       </c>
@@ -6585,7 +7029,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>162</v>
       </c>
@@ -6608,7 +7052,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>163</v>
       </c>
@@ -6631,7 +7075,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>164</v>
       </c>
@@ -6654,7 +7098,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>165</v>
       </c>
@@ -6677,7 +7121,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>166</v>
       </c>
@@ -6700,7 +7144,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>167</v>
       </c>
@@ -6723,7 +7167,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>168</v>
       </c>
@@ -6746,7 +7190,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>169</v>
       </c>
@@ -6769,7 +7213,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>170</v>
       </c>
@@ -6792,7 +7236,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>171</v>
       </c>
@@ -6815,7 +7259,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>172</v>
       </c>
@@ -6838,7 +7282,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>173</v>
       </c>
@@ -6861,7 +7305,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>174</v>
       </c>
@@ -6884,7 +7328,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>175</v>
       </c>
@@ -6907,7 +7351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>176</v>
       </c>
@@ -6930,7 +7374,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>177</v>
       </c>
@@ -6953,7 +7397,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>178</v>
       </c>
@@ -6976,7 +7420,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>179</v>
       </c>
@@ -6999,7 +7443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>180</v>
       </c>
@@ -7022,7 +7466,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>181</v>
       </c>
@@ -7045,7 +7489,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>182</v>
       </c>
@@ -7068,7 +7512,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>183</v>
       </c>
@@ -7091,7 +7535,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>184</v>
       </c>
@@ -7114,7 +7558,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>185</v>
       </c>
@@ -7137,7 +7581,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>186</v>
       </c>
@@ -7160,7 +7604,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>187</v>
       </c>
@@ -7183,7 +7627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>188</v>
       </c>
@@ -7206,7 +7650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>189</v>
       </c>
@@ -7229,7 +7673,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>190</v>
       </c>
@@ -7252,7 +7696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>191</v>
       </c>
@@ -7275,7 +7719,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>192</v>
       </c>
@@ -7298,7 +7742,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>193</v>
       </c>
@@ -7321,7 +7765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>194</v>
       </c>
@@ -7344,7 +7788,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>195</v>
       </c>
@@ -7367,7 +7811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>196</v>
       </c>
@@ -7390,7 +7834,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>197</v>
       </c>
@@ -7413,7 +7857,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>198</v>
       </c>
@@ -7436,7 +7880,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>199</v>
       </c>
@@ -7459,7 +7903,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>200</v>
       </c>
@@ -7482,7 +7926,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>201</v>
       </c>
@@ -7505,7 +7949,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>202</v>
       </c>
@@ -7528,7 +7972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>203</v>
       </c>
@@ -7551,7 +7995,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>204</v>
       </c>
@@ -7574,7 +8018,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>205</v>
       </c>
@@ -7597,7 +8041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>206</v>
       </c>
@@ -7620,7 +8064,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>207</v>
       </c>
@@ -7643,7 +8087,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>208</v>
       </c>
@@ -7666,7 +8110,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>209</v>
       </c>
@@ -7689,7 +8133,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>210</v>
       </c>
@@ -7712,7 +8156,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>211</v>
       </c>
@@ -7735,7 +8179,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>212</v>
       </c>
@@ -7758,7 +8202,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>213</v>
       </c>
@@ -7781,7 +8225,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>214</v>
       </c>
@@ -7804,7 +8248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>215</v>
       </c>
@@ -7827,7 +8271,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>216</v>
       </c>
@@ -7850,7 +8294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>217</v>
       </c>
@@ -7873,7 +8317,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>218</v>
       </c>
@@ -7896,7 +8340,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>219</v>
       </c>
@@ -7919,7 +8363,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>220</v>
       </c>
@@ -7942,7 +8386,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>221</v>
       </c>
@@ -7965,7 +8409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>222</v>
       </c>
@@ -7988,7 +8432,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>223</v>
       </c>
@@ -8011,7 +8455,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>224</v>
       </c>
@@ -8034,7 +8478,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>225</v>
       </c>
@@ -8057,7 +8501,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>226</v>
       </c>
@@ -8080,7 +8524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>227</v>
       </c>
@@ -8103,7 +8547,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>228</v>
       </c>
@@ -8126,7 +8570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>229</v>
       </c>
@@ -8149,7 +8593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>230</v>
       </c>
@@ -8172,7 +8616,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>231</v>
       </c>
@@ -8195,7 +8639,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>232</v>
       </c>
@@ -8218,7 +8662,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>233</v>
       </c>
@@ -8241,7 +8685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>234</v>
       </c>
@@ -8264,7 +8708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>235</v>
       </c>
@@ -8287,7 +8731,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>236</v>
       </c>
@@ -8310,7 +8754,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>237</v>
       </c>
@@ -8333,7 +8777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>238</v>
       </c>
@@ -8356,7 +8800,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>239</v>
       </c>
@@ -8379,7 +8823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>240</v>
       </c>
@@ -8402,7 +8846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>241</v>
       </c>
@@ -8425,7 +8869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>242</v>
       </c>
@@ -8448,7 +8892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>243</v>
       </c>
@@ -8471,7 +8915,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>244</v>
       </c>
@@ -8494,7 +8938,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>245</v>
       </c>
@@ -8517,7 +8961,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>246</v>
       </c>
@@ -8540,7 +8984,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>247</v>
       </c>
@@ -8563,7 +9007,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>248</v>
       </c>
@@ -8586,7 +9030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>249</v>
       </c>
@@ -8609,7 +9053,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>250</v>
       </c>
@@ -8632,7 +9076,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>251</v>
       </c>
@@ -8655,7 +9099,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>252</v>
       </c>
@@ -8678,7 +9122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>253</v>
       </c>
@@ -8701,7 +9145,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>254</v>
       </c>
@@ -8724,7 +9168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>255</v>
       </c>
@@ -8747,7 +9191,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>256</v>
       </c>
@@ -8770,7 +9214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>257</v>
       </c>
@@ -8793,7 +9237,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>258</v>
       </c>
@@ -8816,7 +9260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>259</v>
       </c>
@@ -8839,7 +9283,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>260</v>
       </c>
@@ -8862,7 +9306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>261</v>
       </c>
@@ -8885,7 +9329,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>262</v>
       </c>
@@ -8908,7 +9352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>263</v>
       </c>
@@ -8931,7 +9375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>264</v>
       </c>
@@ -8954,7 +9398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>265</v>
       </c>
@@ -8977,7 +9421,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>266</v>
       </c>
@@ -9000,7 +9444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>267</v>
       </c>
@@ -9023,7 +9467,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>268</v>
       </c>
@@ -9046,7 +9490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>269</v>
       </c>
@@ -9069,7 +9513,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>270</v>
       </c>
@@ -9092,7 +9536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>271</v>
       </c>
@@ -9115,7 +9559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>272</v>
       </c>
@@ -9138,7 +9582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>273</v>
       </c>
@@ -9161,7 +9605,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>274</v>
       </c>
@@ -9184,7 +9628,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>275</v>
       </c>
@@ -9207,7 +9651,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>276</v>
       </c>
@@ -9230,7 +9674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>277</v>
       </c>
@@ -9253,7 +9697,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>278</v>
       </c>
@@ -9276,7 +9720,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>279</v>
       </c>
@@ -9299,7 +9743,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>280</v>
       </c>
@@ -9322,7 +9766,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>281</v>
       </c>
@@ -9345,7 +9789,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>282</v>
       </c>
@@ -9368,7 +9812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>283</v>
       </c>
@@ -9391,7 +9835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>284</v>
       </c>
@@ -9414,7 +9858,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>285</v>
       </c>
@@ -9437,7 +9881,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>286</v>
       </c>
@@ -9460,7 +9904,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>287</v>
       </c>
@@ -9483,7 +9927,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>288</v>
       </c>
@@ -9506,7 +9950,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>289</v>
       </c>
@@ -9529,7 +9973,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>290</v>
       </c>
@@ -9552,7 +9996,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>291</v>
       </c>
@@ -9575,7 +10019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>292</v>
       </c>
@@ -9598,7 +10042,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>293</v>
       </c>
@@ -9621,7 +10065,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>294</v>
       </c>
@@ -9644,7 +10088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>295</v>
       </c>
@@ -9667,7 +10111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>296</v>
       </c>
@@ -9690,7 +10134,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>297</v>
       </c>
@@ -9713,7 +10157,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>298</v>
       </c>
@@ -9736,7 +10180,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>299</v>
       </c>
@@ -9759,7 +10203,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>300</v>
       </c>
@@ -9782,7 +10226,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>301</v>
       </c>
@@ -9805,7 +10249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>302</v>
       </c>
@@ -9828,7 +10272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>303</v>
       </c>
@@ -9851,7 +10295,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>304</v>
       </c>
@@ -9874,7 +10318,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>305</v>
       </c>
@@ -9897,7 +10341,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>306</v>
       </c>
@@ -9920,7 +10364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>307</v>
       </c>
@@ -9943,7 +10387,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>308</v>
       </c>
@@ -9966,7 +10410,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>309</v>
       </c>
@@ -9989,7 +10433,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>310</v>
       </c>
@@ -10012,7 +10456,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>311</v>
       </c>
@@ -10035,7 +10479,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>312</v>
       </c>
@@ -10058,7 +10502,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>313</v>
       </c>
@@ -10081,7 +10525,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>314</v>
       </c>
@@ -10104,7 +10548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>315</v>
       </c>
@@ -10127,7 +10571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>316</v>
       </c>
@@ -10150,7 +10594,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>317</v>
       </c>
@@ -10173,7 +10617,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>318</v>
       </c>
@@ -10196,7 +10640,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>319</v>
       </c>
@@ -10219,7 +10663,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>320</v>
       </c>
@@ -10242,7 +10686,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>321</v>
       </c>
@@ -10265,7 +10709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>322</v>
       </c>
@@ -10288,7 +10732,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>323</v>
       </c>
@@ -10311,7 +10755,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>324</v>
       </c>
@@ -10334,7 +10778,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>325</v>
       </c>
@@ -10357,7 +10801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>326</v>
       </c>
@@ -10380,7 +10824,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>327</v>
       </c>
@@ -10403,7 +10847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>328</v>
       </c>
@@ -10426,7 +10870,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>329</v>
       </c>
@@ -10449,7 +10893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>330</v>
       </c>
@@ -10472,7 +10916,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>331</v>
       </c>
@@ -10495,7 +10939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>332</v>
       </c>
@@ -10518,7 +10962,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>333</v>
       </c>
@@ -10541,7 +10985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>334</v>
       </c>
@@ -10564,7 +11008,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>335</v>
       </c>
@@ -10587,7 +11031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>336</v>
       </c>
@@ -10610,7 +11054,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>337</v>
       </c>
@@ -10633,7 +11077,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>338</v>
       </c>
@@ -10656,7 +11100,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>339</v>
       </c>
@@ -10679,7 +11123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>340</v>
       </c>
@@ -10702,7 +11146,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>341</v>
       </c>
@@ -10725,7 +11169,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>342</v>
       </c>
@@ -10748,7 +11192,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>343</v>
       </c>
@@ -10771,7 +11215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>344</v>
       </c>
@@ -10794,7 +11238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>345</v>
       </c>
@@ -10817,7 +11261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>346</v>
       </c>
@@ -10840,7 +11284,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>347</v>
       </c>
@@ -10863,7 +11307,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>348</v>
       </c>
@@ -10886,7 +11330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>349</v>
       </c>
@@ -10909,7 +11353,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>350</v>
       </c>
@@ -10932,7 +11376,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>351</v>
       </c>
@@ -10955,7 +11399,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>352</v>
       </c>
@@ -10978,7 +11422,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>353</v>
       </c>
@@ -11001,7 +11445,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>354</v>
       </c>
@@ -11024,7 +11468,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>355</v>
       </c>
@@ -11047,7 +11491,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>356</v>
       </c>
@@ -11070,7 +11514,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>357</v>
       </c>
@@ -11093,7 +11537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>358</v>
       </c>
@@ -11116,7 +11560,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>359</v>
       </c>
@@ -11139,7 +11583,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>360</v>
       </c>
@@ -11162,7 +11606,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>361</v>
       </c>
@@ -11185,7 +11629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>362</v>
       </c>
@@ -11208,7 +11652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>363</v>
       </c>
@@ -11231,7 +11675,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>364</v>
       </c>
@@ -11254,7 +11698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>365</v>
       </c>
@@ -11277,7 +11721,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>366</v>
       </c>
@@ -11300,7 +11744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>367</v>
       </c>
@@ -11323,7 +11767,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>368</v>
       </c>
@@ -11346,7 +11790,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>369</v>
       </c>
@@ -11369,7 +11813,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>370</v>
       </c>
@@ -11392,7 +11836,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>371</v>
       </c>
@@ -11415,7 +11859,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>372</v>
       </c>
@@ -11438,7 +11882,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>373</v>
       </c>
@@ -11461,7 +11905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>374</v>
       </c>
@@ -11484,7 +11928,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>375</v>
       </c>
@@ -11507,7 +11951,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>376</v>
       </c>
@@ -11530,7 +11974,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>377</v>
       </c>
@@ -11553,7 +11997,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>378</v>
       </c>
@@ -11576,7 +12020,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>379</v>
       </c>
@@ -11599,7 +12043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>380</v>
       </c>
@@ -11622,7 +12066,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>381</v>
       </c>
@@ -11645,7 +12089,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>382</v>
       </c>
@@ -11668,7 +12112,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>383</v>
       </c>
@@ -11691,7 +12135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>384</v>
       </c>
@@ -11714,7 +12158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>385</v>
       </c>
@@ -11737,7 +12181,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>386</v>
       </c>
@@ -11760,7 +12204,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>387</v>
       </c>
@@ -11783,7 +12227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>388</v>
       </c>
@@ -11806,7 +12250,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>389</v>
       </c>
@@ -11829,7 +12273,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>390</v>
       </c>
@@ -11852,7 +12296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>391</v>
       </c>
@@ -11875,7 +12319,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>392</v>
       </c>
@@ -11898,7 +12342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>393</v>
       </c>
@@ -11921,7 +12365,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>394</v>
       </c>
@@ -11944,7 +12388,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>395</v>
       </c>
@@ -11967,7 +12411,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>396</v>
       </c>
@@ -11990,7 +12434,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>397</v>
       </c>
@@ -12013,7 +12457,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>398</v>
       </c>
@@ -12036,7 +12480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>399</v>
       </c>
@@ -12059,7 +12503,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>400</v>
       </c>
@@ -12082,7 +12526,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>401</v>
       </c>
@@ -12105,7 +12549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>402</v>
       </c>
@@ -12128,7 +12572,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>403</v>
       </c>
@@ -12151,7 +12595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>404</v>
       </c>
@@ -12174,7 +12618,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>405</v>
       </c>
@@ -12197,7 +12641,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>406</v>
       </c>
@@ -12220,7 +12664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>407</v>
       </c>
@@ -12243,7 +12687,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>408</v>
       </c>
@@ -12266,7 +12710,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>409</v>
       </c>
@@ -12289,7 +12733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>410</v>
       </c>
@@ -12312,7 +12756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>411</v>
       </c>
@@ -12335,7 +12779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>412</v>
       </c>
@@ -12358,7 +12802,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>413</v>
       </c>
@@ -12381,7 +12825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>414</v>
       </c>
@@ -12404,7 +12848,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>415</v>
       </c>
@@ -12427,7 +12871,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>416</v>
       </c>
@@ -12450,7 +12894,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>417</v>
       </c>
@@ -12473,7 +12917,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>418</v>
       </c>
@@ -12496,7 +12940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>419</v>
       </c>
@@ -12519,7 +12963,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>420</v>
       </c>
@@ -12539,6 +12983,3387 @@
         <v>20</v>
       </c>
       <c r="G415">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>861</v>
+      </c>
+      <c r="B416" t="s">
+        <v>545</v>
+      </c>
+      <c r="C416" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D416" t="s">
+        <v>822</v>
+      </c>
+      <c r="E416">
+        <v>20</v>
+      </c>
+      <c r="F416">
+        <v>60</v>
+      </c>
+      <c r="G416">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>862</v>
+      </c>
+      <c r="B417" t="s">
+        <v>546</v>
+      </c>
+      <c r="C417" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D417" t="s">
+        <v>824</v>
+      </c>
+      <c r="E417">
+        <v>20</v>
+      </c>
+      <c r="F417">
+        <v>60</v>
+      </c>
+      <c r="G417">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>863</v>
+      </c>
+      <c r="B418" t="s">
+        <v>547</v>
+      </c>
+      <c r="C418" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D418" t="s">
+        <v>822</v>
+      </c>
+      <c r="E418">
+        <v>20</v>
+      </c>
+      <c r="F418">
+        <v>60</v>
+      </c>
+      <c r="G418">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>864</v>
+      </c>
+      <c r="B419" t="s">
+        <v>548</v>
+      </c>
+      <c r="C419" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D419" t="s">
+        <v>824</v>
+      </c>
+      <c r="E419">
+        <v>20</v>
+      </c>
+      <c r="F419">
+        <v>60</v>
+      </c>
+      <c r="G419">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>865</v>
+      </c>
+      <c r="B420" t="s">
+        <v>549</v>
+      </c>
+      <c r="C420" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D420" t="s">
+        <v>823</v>
+      </c>
+      <c r="E420">
+        <v>20</v>
+      </c>
+      <c r="F420">
+        <v>60</v>
+      </c>
+      <c r="G420">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>866</v>
+      </c>
+      <c r="B421" t="s">
+        <v>550</v>
+      </c>
+      <c r="C421" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D421" t="s">
+        <v>826</v>
+      </c>
+      <c r="E421">
+        <v>20</v>
+      </c>
+      <c r="F421">
+        <v>60</v>
+      </c>
+      <c r="G421">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>867</v>
+      </c>
+      <c r="B422" t="s">
+        <v>551</v>
+      </c>
+      <c r="C422" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D422" t="s">
+        <v>822</v>
+      </c>
+      <c r="E422">
+        <v>20</v>
+      </c>
+      <c r="F422">
+        <v>60</v>
+      </c>
+      <c r="G422">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>868</v>
+      </c>
+      <c r="B423" t="s">
+        <v>552</v>
+      </c>
+      <c r="C423" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D423" t="s">
+        <v>826</v>
+      </c>
+      <c r="E423">
+        <v>20</v>
+      </c>
+      <c r="F423">
+        <v>60</v>
+      </c>
+      <c r="G423">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>869</v>
+      </c>
+      <c r="B424" t="s">
+        <v>553</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D424" t="s">
+        <v>822</v>
+      </c>
+      <c r="E424">
+        <v>20</v>
+      </c>
+      <c r="F424">
+        <v>60</v>
+      </c>
+      <c r="G424">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>870</v>
+      </c>
+      <c r="B425" t="s">
+        <v>554</v>
+      </c>
+      <c r="C425" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D425" t="s">
+        <v>823</v>
+      </c>
+      <c r="E425">
+        <v>20</v>
+      </c>
+      <c r="F425">
+        <v>60</v>
+      </c>
+      <c r="G425">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>871</v>
+      </c>
+      <c r="B426" t="s">
+        <v>555</v>
+      </c>
+      <c r="C426" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D426" t="s">
+        <v>822</v>
+      </c>
+      <c r="E426">
+        <v>20</v>
+      </c>
+      <c r="F426">
+        <v>60</v>
+      </c>
+      <c r="G426">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>872</v>
+      </c>
+      <c r="B427" t="s">
+        <v>556</v>
+      </c>
+      <c r="C427" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D427" t="s">
+        <v>824</v>
+      </c>
+      <c r="E427">
+        <v>20</v>
+      </c>
+      <c r="F427">
+        <v>60</v>
+      </c>
+      <c r="G427">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>873</v>
+      </c>
+      <c r="B428" t="s">
+        <v>557</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D428" t="s">
+        <v>822</v>
+      </c>
+      <c r="E428">
+        <v>20</v>
+      </c>
+      <c r="F428">
+        <v>60</v>
+      </c>
+      <c r="G428">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>874</v>
+      </c>
+      <c r="B429" t="s">
+        <v>558</v>
+      </c>
+      <c r="C429" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D429" t="s">
+        <v>824</v>
+      </c>
+      <c r="E429">
+        <v>20</v>
+      </c>
+      <c r="F429">
+        <v>60</v>
+      </c>
+      <c r="G429">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>875</v>
+      </c>
+      <c r="B430" t="s">
+        <v>559</v>
+      </c>
+      <c r="C430" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D430" t="s">
+        <v>823</v>
+      </c>
+      <c r="E430">
+        <v>20</v>
+      </c>
+      <c r="F430">
+        <v>60</v>
+      </c>
+      <c r="G430">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>876</v>
+      </c>
+      <c r="B431" t="s">
+        <v>560</v>
+      </c>
+      <c r="C431" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D431" t="s">
+        <v>822</v>
+      </c>
+      <c r="E431">
+        <v>20</v>
+      </c>
+      <c r="F431">
+        <v>60</v>
+      </c>
+      <c r="G431">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>877</v>
+      </c>
+      <c r="B432" t="s">
+        <v>561</v>
+      </c>
+      <c r="C432" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D432" t="s">
+        <v>823</v>
+      </c>
+      <c r="E432">
+        <v>20</v>
+      </c>
+      <c r="F432">
+        <v>60</v>
+      </c>
+      <c r="G432">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>878</v>
+      </c>
+      <c r="B433" t="s">
+        <v>562</v>
+      </c>
+      <c r="C433" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D433" t="s">
+        <v>822</v>
+      </c>
+      <c r="E433">
+        <v>20</v>
+      </c>
+      <c r="F433">
+        <v>60</v>
+      </c>
+      <c r="G433">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>879</v>
+      </c>
+      <c r="B434" t="s">
+        <v>563</v>
+      </c>
+      <c r="C434" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D434" t="s">
+        <v>824</v>
+      </c>
+      <c r="E434">
+        <v>20</v>
+      </c>
+      <c r="F434">
+        <v>60</v>
+      </c>
+      <c r="G434">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>880</v>
+      </c>
+      <c r="B435" t="s">
+        <v>564</v>
+      </c>
+      <c r="C435" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D435" t="s">
+        <v>822</v>
+      </c>
+      <c r="E435">
+        <v>20</v>
+      </c>
+      <c r="F435">
+        <v>60</v>
+      </c>
+      <c r="G435">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>881</v>
+      </c>
+      <c r="B436" t="s">
+        <v>565</v>
+      </c>
+      <c r="C436" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D436" t="s">
+        <v>823</v>
+      </c>
+      <c r="E436">
+        <v>20</v>
+      </c>
+      <c r="F436">
+        <v>60</v>
+      </c>
+      <c r="G436">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>882</v>
+      </c>
+      <c r="B437" t="s">
+        <v>566</v>
+      </c>
+      <c r="C437" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D437" t="s">
+        <v>822</v>
+      </c>
+      <c r="E437">
+        <v>20</v>
+      </c>
+      <c r="F437">
+        <v>60</v>
+      </c>
+      <c r="G437">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>883</v>
+      </c>
+      <c r="B438" t="s">
+        <v>567</v>
+      </c>
+      <c r="C438" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D438" t="s">
+        <v>824</v>
+      </c>
+      <c r="E438">
+        <v>20</v>
+      </c>
+      <c r="F438">
+        <v>60</v>
+      </c>
+      <c r="G438">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>884</v>
+      </c>
+      <c r="B439" t="s">
+        <v>568</v>
+      </c>
+      <c r="C439" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D439" t="s">
+        <v>823</v>
+      </c>
+      <c r="E439">
+        <v>20</v>
+      </c>
+      <c r="F439">
+        <v>60</v>
+      </c>
+      <c r="G439">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>885</v>
+      </c>
+      <c r="B440" t="s">
+        <v>569</v>
+      </c>
+      <c r="C440" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D440" t="s">
+        <v>822</v>
+      </c>
+      <c r="E440">
+        <v>20</v>
+      </c>
+      <c r="F440">
+        <v>60</v>
+      </c>
+      <c r="G440">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>886</v>
+      </c>
+      <c r="B441" t="s">
+        <v>570</v>
+      </c>
+      <c r="C441" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D441" t="s">
+        <v>824</v>
+      </c>
+      <c r="E441">
+        <v>20</v>
+      </c>
+      <c r="F441">
+        <v>60</v>
+      </c>
+      <c r="G441">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>887</v>
+      </c>
+      <c r="B442" t="s">
+        <v>571</v>
+      </c>
+      <c r="C442" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D442" t="s">
+        <v>823</v>
+      </c>
+      <c r="E442">
+        <v>20</v>
+      </c>
+      <c r="F442">
+        <v>60</v>
+      </c>
+      <c r="G442">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>888</v>
+      </c>
+      <c r="B443" t="s">
+        <v>572</v>
+      </c>
+      <c r="C443" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D443" t="s">
+        <v>822</v>
+      </c>
+      <c r="E443">
+        <v>20</v>
+      </c>
+      <c r="F443">
+        <v>60</v>
+      </c>
+      <c r="G443">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>889</v>
+      </c>
+      <c r="B444" t="s">
+        <v>573</v>
+      </c>
+      <c r="C444" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D444" t="s">
+        <v>824</v>
+      </c>
+      <c r="E444">
+        <v>20</v>
+      </c>
+      <c r="F444">
+        <v>60</v>
+      </c>
+      <c r="G444">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>890</v>
+      </c>
+      <c r="B445" t="s">
+        <v>574</v>
+      </c>
+      <c r="C445" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D445" t="s">
+        <v>822</v>
+      </c>
+      <c r="E445">
+        <v>20</v>
+      </c>
+      <c r="F445">
+        <v>60</v>
+      </c>
+      <c r="G445">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>891</v>
+      </c>
+      <c r="B446" t="s">
+        <v>575</v>
+      </c>
+      <c r="C446" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D446" t="s">
+        <v>825</v>
+      </c>
+      <c r="E446">
+        <v>20</v>
+      </c>
+      <c r="F446">
+        <v>60</v>
+      </c>
+      <c r="G446">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>892</v>
+      </c>
+      <c r="B447" t="s">
+        <v>576</v>
+      </c>
+      <c r="C447" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D447" t="s">
+        <v>822</v>
+      </c>
+      <c r="E447">
+        <v>20</v>
+      </c>
+      <c r="F447">
+        <v>60</v>
+      </c>
+      <c r="G447">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>893</v>
+      </c>
+      <c r="B448" t="s">
+        <v>577</v>
+      </c>
+      <c r="C448" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D448" t="s">
+        <v>823</v>
+      </c>
+      <c r="E448">
+        <v>20</v>
+      </c>
+      <c r="F448">
+        <v>60</v>
+      </c>
+      <c r="G448">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>894</v>
+      </c>
+      <c r="B449" t="s">
+        <v>578</v>
+      </c>
+      <c r="C449" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D449" t="s">
+        <v>826</v>
+      </c>
+      <c r="E449">
+        <v>20</v>
+      </c>
+      <c r="F449">
+        <v>60</v>
+      </c>
+      <c r="G449">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>895</v>
+      </c>
+      <c r="B450" t="s">
+        <v>579</v>
+      </c>
+      <c r="C450" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D450" t="s">
+        <v>826</v>
+      </c>
+      <c r="E450">
+        <v>20</v>
+      </c>
+      <c r="F450">
+        <v>60</v>
+      </c>
+      <c r="G450">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>896</v>
+      </c>
+      <c r="B451" t="s">
+        <v>580</v>
+      </c>
+      <c r="C451" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D451" t="s">
+        <v>822</v>
+      </c>
+      <c r="E451">
+        <v>20</v>
+      </c>
+      <c r="F451">
+        <v>60</v>
+      </c>
+      <c r="G451">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>897</v>
+      </c>
+      <c r="B452" t="s">
+        <v>581</v>
+      </c>
+      <c r="C452" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D452" t="s">
+        <v>822</v>
+      </c>
+      <c r="E452">
+        <v>20</v>
+      </c>
+      <c r="F452">
+        <v>60</v>
+      </c>
+      <c r="G452">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>898</v>
+      </c>
+      <c r="B453" t="s">
+        <v>582</v>
+      </c>
+      <c r="C453" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D453" t="s">
+        <v>822</v>
+      </c>
+      <c r="E453">
+        <v>20</v>
+      </c>
+      <c r="F453">
+        <v>60</v>
+      </c>
+      <c r="G453">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>899</v>
+      </c>
+      <c r="B454" t="s">
+        <v>583</v>
+      </c>
+      <c r="C454" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D454" t="s">
+        <v>823</v>
+      </c>
+      <c r="E454">
+        <v>20</v>
+      </c>
+      <c r="F454">
+        <v>60</v>
+      </c>
+      <c r="G454">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>900</v>
+      </c>
+      <c r="B455" t="s">
+        <v>584</v>
+      </c>
+      <c r="C455" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D455" t="s">
+        <v>826</v>
+      </c>
+      <c r="E455">
+        <v>20</v>
+      </c>
+      <c r="F455">
+        <v>60</v>
+      </c>
+      <c r="G455">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>901</v>
+      </c>
+      <c r="B456" t="s">
+        <v>585</v>
+      </c>
+      <c r="C456" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D456" t="s">
+        <v>823</v>
+      </c>
+      <c r="E456">
+        <v>20</v>
+      </c>
+      <c r="F456">
+        <v>60</v>
+      </c>
+      <c r="G456">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>902</v>
+      </c>
+      <c r="B457" t="s">
+        <v>586</v>
+      </c>
+      <c r="C457" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D457" t="s">
+        <v>822</v>
+      </c>
+      <c r="E457">
+        <v>20</v>
+      </c>
+      <c r="F457">
+        <v>60</v>
+      </c>
+      <c r="G457">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>903</v>
+      </c>
+      <c r="B458" t="s">
+        <v>587</v>
+      </c>
+      <c r="C458" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D458" t="s">
+        <v>824</v>
+      </c>
+      <c r="E458">
+        <v>20</v>
+      </c>
+      <c r="F458">
+        <v>60</v>
+      </c>
+      <c r="G458">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>904</v>
+      </c>
+      <c r="B459" t="s">
+        <v>588</v>
+      </c>
+      <c r="C459" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D459" t="s">
+        <v>826</v>
+      </c>
+      <c r="E459">
+        <v>20</v>
+      </c>
+      <c r="F459">
+        <v>60</v>
+      </c>
+      <c r="G459">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>905</v>
+      </c>
+      <c r="B460" t="s">
+        <v>589</v>
+      </c>
+      <c r="C460" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D460" t="s">
+        <v>822</v>
+      </c>
+      <c r="E460">
+        <v>20</v>
+      </c>
+      <c r="F460">
+        <v>60</v>
+      </c>
+      <c r="G460">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>906</v>
+      </c>
+      <c r="B461" t="s">
+        <v>590</v>
+      </c>
+      <c r="C461" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D461" t="s">
+        <v>822</v>
+      </c>
+      <c r="E461">
+        <v>20</v>
+      </c>
+      <c r="F461">
+        <v>60</v>
+      </c>
+      <c r="G461">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>907</v>
+      </c>
+      <c r="B462" t="s">
+        <v>591</v>
+      </c>
+      <c r="C462" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D462" t="s">
+        <v>823</v>
+      </c>
+      <c r="E462">
+        <v>20</v>
+      </c>
+      <c r="F462">
+        <v>60</v>
+      </c>
+      <c r="G462">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>908</v>
+      </c>
+      <c r="B463" t="s">
+        <v>592</v>
+      </c>
+      <c r="C463" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D463" t="s">
+        <v>826</v>
+      </c>
+      <c r="E463">
+        <v>20</v>
+      </c>
+      <c r="F463">
+        <v>60</v>
+      </c>
+      <c r="G463">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>909</v>
+      </c>
+      <c r="B464" t="s">
+        <v>593</v>
+      </c>
+      <c r="C464" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D464" t="s">
+        <v>822</v>
+      </c>
+      <c r="E464">
+        <v>20</v>
+      </c>
+      <c r="F464">
+        <v>60</v>
+      </c>
+      <c r="G464">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>910</v>
+      </c>
+      <c r="B465" t="s">
+        <v>594</v>
+      </c>
+      <c r="C465" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D465" t="s">
+        <v>823</v>
+      </c>
+      <c r="E465">
+        <v>20</v>
+      </c>
+      <c r="F465">
+        <v>60</v>
+      </c>
+      <c r="G465">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>911</v>
+      </c>
+      <c r="B466" t="s">
+        <v>595</v>
+      </c>
+      <c r="C466" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D466" t="s">
+        <v>825</v>
+      </c>
+      <c r="E466">
+        <v>20</v>
+      </c>
+      <c r="F466">
+        <v>60</v>
+      </c>
+      <c r="G466">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>912</v>
+      </c>
+      <c r="B467" t="s">
+        <v>596</v>
+      </c>
+      <c r="C467" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D467" t="s">
+        <v>822</v>
+      </c>
+      <c r="E467">
+        <v>20</v>
+      </c>
+      <c r="F467">
+        <v>60</v>
+      </c>
+      <c r="G467">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>913</v>
+      </c>
+      <c r="B468" t="s">
+        <v>597</v>
+      </c>
+      <c r="C468" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D468" t="s">
+        <v>822</v>
+      </c>
+      <c r="E468">
+        <v>20</v>
+      </c>
+      <c r="F468">
+        <v>60</v>
+      </c>
+      <c r="G468">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>914</v>
+      </c>
+      <c r="B469" t="s">
+        <v>598</v>
+      </c>
+      <c r="C469" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D469" t="s">
+        <v>826</v>
+      </c>
+      <c r="E469">
+        <v>20</v>
+      </c>
+      <c r="F469">
+        <v>60</v>
+      </c>
+      <c r="G469">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>915</v>
+      </c>
+      <c r="B470" t="s">
+        <v>599</v>
+      </c>
+      <c r="C470" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D470" t="s">
+        <v>826</v>
+      </c>
+      <c r="E470">
+        <v>20</v>
+      </c>
+      <c r="F470">
+        <v>60</v>
+      </c>
+      <c r="G470">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>916</v>
+      </c>
+      <c r="B471" t="s">
+        <v>600</v>
+      </c>
+      <c r="C471" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D471" t="s">
+        <v>826</v>
+      </c>
+      <c r="E471">
+        <v>20</v>
+      </c>
+      <c r="F471">
+        <v>60</v>
+      </c>
+      <c r="G471">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>917</v>
+      </c>
+      <c r="B472" t="s">
+        <v>601</v>
+      </c>
+      <c r="C472" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D472" t="s">
+        <v>826</v>
+      </c>
+      <c r="E472">
+        <v>20</v>
+      </c>
+      <c r="F472">
+        <v>60</v>
+      </c>
+      <c r="G472">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>918</v>
+      </c>
+      <c r="B473" t="s">
+        <v>602</v>
+      </c>
+      <c r="C473" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D473" t="s">
+        <v>823</v>
+      </c>
+      <c r="E473">
+        <v>20</v>
+      </c>
+      <c r="F473">
+        <v>60</v>
+      </c>
+      <c r="G473">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>919</v>
+      </c>
+      <c r="B474" t="s">
+        <v>603</v>
+      </c>
+      <c r="C474" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D474" t="s">
+        <v>826</v>
+      </c>
+      <c r="E474">
+        <v>20</v>
+      </c>
+      <c r="F474">
+        <v>60</v>
+      </c>
+      <c r="G474">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>920</v>
+      </c>
+      <c r="B475" t="s">
+        <v>604</v>
+      </c>
+      <c r="C475" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D475" t="s">
+        <v>826</v>
+      </c>
+      <c r="E475">
+        <v>20</v>
+      </c>
+      <c r="F475">
+        <v>60</v>
+      </c>
+      <c r="G475">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>921</v>
+      </c>
+      <c r="B476" t="s">
+        <v>605</v>
+      </c>
+      <c r="C476" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D476" t="s">
+        <v>826</v>
+      </c>
+      <c r="E476">
+        <v>20</v>
+      </c>
+      <c r="F476">
+        <v>60</v>
+      </c>
+      <c r="G476">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>922</v>
+      </c>
+      <c r="B477" t="s">
+        <v>606</v>
+      </c>
+      <c r="C477" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D477" t="s">
+        <v>826</v>
+      </c>
+      <c r="E477">
+        <v>20</v>
+      </c>
+      <c r="F477">
+        <v>60</v>
+      </c>
+      <c r="G477">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>923</v>
+      </c>
+      <c r="B478" t="s">
+        <v>607</v>
+      </c>
+      <c r="C478" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D478" t="s">
+        <v>822</v>
+      </c>
+      <c r="E478">
+        <v>20</v>
+      </c>
+      <c r="F478">
+        <v>60</v>
+      </c>
+      <c r="G478">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>924</v>
+      </c>
+      <c r="B479" t="s">
+        <v>608</v>
+      </c>
+      <c r="C479" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D479" t="s">
+        <v>826</v>
+      </c>
+      <c r="E479">
+        <v>20</v>
+      </c>
+      <c r="F479">
+        <v>60</v>
+      </c>
+      <c r="G479">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>925</v>
+      </c>
+      <c r="B480" t="s">
+        <v>609</v>
+      </c>
+      <c r="C480" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D480" t="s">
+        <v>826</v>
+      </c>
+      <c r="E480">
+        <v>20</v>
+      </c>
+      <c r="F480">
+        <v>60</v>
+      </c>
+      <c r="G480">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>926</v>
+      </c>
+      <c r="B481" t="s">
+        <v>610</v>
+      </c>
+      <c r="C481" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D481" t="s">
+        <v>826</v>
+      </c>
+      <c r="E481">
+        <v>20</v>
+      </c>
+      <c r="F481">
+        <v>60</v>
+      </c>
+      <c r="G481">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>927</v>
+      </c>
+      <c r="B482" t="s">
+        <v>611</v>
+      </c>
+      <c r="C482" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D482" t="s">
+        <v>826</v>
+      </c>
+      <c r="E482">
+        <v>20</v>
+      </c>
+      <c r="F482">
+        <v>60</v>
+      </c>
+      <c r="G482">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>928</v>
+      </c>
+      <c r="B483" t="s">
+        <v>612</v>
+      </c>
+      <c r="C483" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D483" t="s">
+        <v>826</v>
+      </c>
+      <c r="E483">
+        <v>20</v>
+      </c>
+      <c r="F483">
+        <v>60</v>
+      </c>
+      <c r="G483">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>929</v>
+      </c>
+      <c r="B484" t="s">
+        <v>613</v>
+      </c>
+      <c r="C484" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D484" t="s">
+        <v>826</v>
+      </c>
+      <c r="E484">
+        <v>20</v>
+      </c>
+      <c r="F484">
+        <v>60</v>
+      </c>
+      <c r="G484">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>930</v>
+      </c>
+      <c r="B485" t="s">
+        <v>614</v>
+      </c>
+      <c r="C485" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D485" t="s">
+        <v>826</v>
+      </c>
+      <c r="E485">
+        <v>20</v>
+      </c>
+      <c r="F485">
+        <v>60</v>
+      </c>
+      <c r="G485">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>931</v>
+      </c>
+      <c r="B486" t="s">
+        <v>615</v>
+      </c>
+      <c r="C486" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D486" t="s">
+        <v>823</v>
+      </c>
+      <c r="E486">
+        <v>20</v>
+      </c>
+      <c r="F486">
+        <v>60</v>
+      </c>
+      <c r="G486">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>932</v>
+      </c>
+      <c r="B487" t="s">
+        <v>616</v>
+      </c>
+      <c r="C487" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D487" t="s">
+        <v>822</v>
+      </c>
+      <c r="E487">
+        <v>20</v>
+      </c>
+      <c r="F487">
+        <v>60</v>
+      </c>
+      <c r="G487">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>933</v>
+      </c>
+      <c r="B488" t="s">
+        <v>617</v>
+      </c>
+      <c r="C488" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D488" t="s">
+        <v>825</v>
+      </c>
+      <c r="E488">
+        <v>20</v>
+      </c>
+      <c r="F488">
+        <v>60</v>
+      </c>
+      <c r="G488">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>934</v>
+      </c>
+      <c r="B489" t="s">
+        <v>618</v>
+      </c>
+      <c r="C489" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D489" t="s">
+        <v>824</v>
+      </c>
+      <c r="E489">
+        <v>20</v>
+      </c>
+      <c r="F489">
+        <v>60</v>
+      </c>
+      <c r="G489">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>935</v>
+      </c>
+      <c r="B490" t="s">
+        <v>619</v>
+      </c>
+      <c r="C490" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D490" t="s">
+        <v>822</v>
+      </c>
+      <c r="E490">
+        <v>20</v>
+      </c>
+      <c r="F490">
+        <v>60</v>
+      </c>
+      <c r="G490">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>936</v>
+      </c>
+      <c r="B491" t="s">
+        <v>620</v>
+      </c>
+      <c r="C491" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D491" t="s">
+        <v>826</v>
+      </c>
+      <c r="E491">
+        <v>20</v>
+      </c>
+      <c r="F491">
+        <v>60</v>
+      </c>
+      <c r="G491">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>937</v>
+      </c>
+      <c r="B492" t="s">
+        <v>621</v>
+      </c>
+      <c r="C492" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D492" t="s">
+        <v>824</v>
+      </c>
+      <c r="E492">
+        <v>20</v>
+      </c>
+      <c r="F492">
+        <v>60</v>
+      </c>
+      <c r="G492">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>938</v>
+      </c>
+      <c r="B493" t="s">
+        <v>622</v>
+      </c>
+      <c r="C493" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D493" t="s">
+        <v>822</v>
+      </c>
+      <c r="E493">
+        <v>20</v>
+      </c>
+      <c r="F493">
+        <v>60</v>
+      </c>
+      <c r="G493">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>939</v>
+      </c>
+      <c r="B494" t="s">
+        <v>623</v>
+      </c>
+      <c r="C494" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D494" t="s">
+        <v>826</v>
+      </c>
+      <c r="E494">
+        <v>20</v>
+      </c>
+      <c r="F494">
+        <v>60</v>
+      </c>
+      <c r="G494">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>940</v>
+      </c>
+      <c r="B495" t="s">
+        <v>624</v>
+      </c>
+      <c r="C495" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D495" t="s">
+        <v>823</v>
+      </c>
+      <c r="E495">
+        <v>20</v>
+      </c>
+      <c r="F495">
+        <v>60</v>
+      </c>
+      <c r="G495">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>941</v>
+      </c>
+      <c r="B496" t="s">
+        <v>625</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D496" t="s">
+        <v>826</v>
+      </c>
+      <c r="E496">
+        <v>20</v>
+      </c>
+      <c r="F496">
+        <v>60</v>
+      </c>
+      <c r="G496">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>942</v>
+      </c>
+      <c r="B497" t="s">
+        <v>626</v>
+      </c>
+      <c r="C497" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D497" t="s">
+        <v>826</v>
+      </c>
+      <c r="E497">
+        <v>20</v>
+      </c>
+      <c r="F497">
+        <v>60</v>
+      </c>
+      <c r="G497">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>943</v>
+      </c>
+      <c r="B498" t="s">
+        <v>627</v>
+      </c>
+      <c r="C498" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D498" t="s">
+        <v>822</v>
+      </c>
+      <c r="E498">
+        <v>20</v>
+      </c>
+      <c r="F498">
+        <v>60</v>
+      </c>
+      <c r="G498">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>944</v>
+      </c>
+      <c r="B499" t="s">
+        <v>628</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D499" t="s">
+        <v>822</v>
+      </c>
+      <c r="E499">
+        <v>20</v>
+      </c>
+      <c r="F499">
+        <v>60</v>
+      </c>
+      <c r="G499">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>945</v>
+      </c>
+      <c r="B500" t="s">
+        <v>629</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D500" t="s">
+        <v>826</v>
+      </c>
+      <c r="E500">
+        <v>20</v>
+      </c>
+      <c r="F500">
+        <v>60</v>
+      </c>
+      <c r="G500">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>946</v>
+      </c>
+      <c r="B501" t="s">
+        <v>630</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D501" t="s">
+        <v>822</v>
+      </c>
+      <c r="E501">
+        <v>20</v>
+      </c>
+      <c r="F501">
+        <v>60</v>
+      </c>
+      <c r="G501">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>947</v>
+      </c>
+      <c r="B502" t="s">
+        <v>631</v>
+      </c>
+      <c r="C502" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D502" t="s">
+        <v>822</v>
+      </c>
+      <c r="E502">
+        <v>20</v>
+      </c>
+      <c r="F502">
+        <v>60</v>
+      </c>
+      <c r="G502">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>948</v>
+      </c>
+      <c r="B503" t="s">
+        <v>632</v>
+      </c>
+      <c r="C503" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D503" t="s">
+        <v>822</v>
+      </c>
+      <c r="E503">
+        <v>20</v>
+      </c>
+      <c r="F503">
+        <v>60</v>
+      </c>
+      <c r="G503">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>949</v>
+      </c>
+      <c r="B504" t="s">
+        <v>633</v>
+      </c>
+      <c r="C504" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D504" t="s">
+        <v>822</v>
+      </c>
+      <c r="E504">
+        <v>20</v>
+      </c>
+      <c r="F504">
+        <v>60</v>
+      </c>
+      <c r="G504">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>950</v>
+      </c>
+      <c r="B505" t="s">
+        <v>634</v>
+      </c>
+      <c r="C505" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D505" t="s">
+        <v>825</v>
+      </c>
+      <c r="E505">
+        <v>20</v>
+      </c>
+      <c r="F505">
+        <v>60</v>
+      </c>
+      <c r="G505">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>951</v>
+      </c>
+      <c r="B506" t="s">
+        <v>635</v>
+      </c>
+      <c r="C506" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D506" t="s">
+        <v>822</v>
+      </c>
+      <c r="E506">
+        <v>20</v>
+      </c>
+      <c r="F506">
+        <v>60</v>
+      </c>
+      <c r="G506">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>952</v>
+      </c>
+      <c r="B507" t="s">
+        <v>636</v>
+      </c>
+      <c r="C507" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D507" t="s">
+        <v>824</v>
+      </c>
+      <c r="E507">
+        <v>20</v>
+      </c>
+      <c r="F507">
+        <v>60</v>
+      </c>
+      <c r="G507">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>953</v>
+      </c>
+      <c r="B508" t="s">
+        <v>637</v>
+      </c>
+      <c r="C508" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D508" t="s">
+        <v>826</v>
+      </c>
+      <c r="E508">
+        <v>20</v>
+      </c>
+      <c r="F508">
+        <v>60</v>
+      </c>
+      <c r="G508">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>954</v>
+      </c>
+      <c r="B509" t="s">
+        <v>638</v>
+      </c>
+      <c r="C509" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D509" t="s">
+        <v>824</v>
+      </c>
+      <c r="E509">
+        <v>20</v>
+      </c>
+      <c r="F509">
+        <v>60</v>
+      </c>
+      <c r="G509">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>955</v>
+      </c>
+      <c r="B510" t="s">
+        <v>639</v>
+      </c>
+      <c r="C510" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D510" t="s">
+        <v>822</v>
+      </c>
+      <c r="E510">
+        <v>20</v>
+      </c>
+      <c r="F510">
+        <v>60</v>
+      </c>
+      <c r="G510">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>956</v>
+      </c>
+      <c r="B511" t="s">
+        <v>640</v>
+      </c>
+      <c r="C511" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D511" t="s">
+        <v>822</v>
+      </c>
+      <c r="E511">
+        <v>20</v>
+      </c>
+      <c r="F511">
+        <v>60</v>
+      </c>
+      <c r="G511">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>957</v>
+      </c>
+      <c r="B512" t="s">
+        <v>641</v>
+      </c>
+      <c r="C512" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D512" t="s">
+        <v>822</v>
+      </c>
+      <c r="E512">
+        <v>20</v>
+      </c>
+      <c r="F512">
+        <v>60</v>
+      </c>
+      <c r="G512">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>958</v>
+      </c>
+      <c r="B513" t="s">
+        <v>642</v>
+      </c>
+      <c r="C513" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D513" t="s">
+        <v>824</v>
+      </c>
+      <c r="E513">
+        <v>20</v>
+      </c>
+      <c r="F513">
+        <v>60</v>
+      </c>
+      <c r="G513">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>959</v>
+      </c>
+      <c r="B514" t="s">
+        <v>643</v>
+      </c>
+      <c r="C514" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D514" t="s">
+        <v>825</v>
+      </c>
+      <c r="E514">
+        <v>20</v>
+      </c>
+      <c r="F514">
+        <v>60</v>
+      </c>
+      <c r="G514">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>960</v>
+      </c>
+      <c r="B515" t="s">
+        <v>644</v>
+      </c>
+      <c r="C515" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D515" t="s">
+        <v>823</v>
+      </c>
+      <c r="E515">
+        <v>20</v>
+      </c>
+      <c r="F515">
+        <v>60</v>
+      </c>
+      <c r="G515">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>961</v>
+      </c>
+      <c r="B516" t="s">
+        <v>645</v>
+      </c>
+      <c r="C516" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D516" t="s">
+        <v>822</v>
+      </c>
+      <c r="E516">
+        <v>20</v>
+      </c>
+      <c r="F516">
+        <v>60</v>
+      </c>
+      <c r="G516">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>962</v>
+      </c>
+      <c r="B517" t="s">
+        <v>646</v>
+      </c>
+      <c r="C517" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D517" t="s">
+        <v>823</v>
+      </c>
+      <c r="E517">
+        <v>20</v>
+      </c>
+      <c r="F517">
+        <v>60</v>
+      </c>
+      <c r="G517">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>963</v>
+      </c>
+      <c r="B518" t="s">
+        <v>647</v>
+      </c>
+      <c r="C518" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D518" t="s">
+        <v>824</v>
+      </c>
+      <c r="E518">
+        <v>20</v>
+      </c>
+      <c r="F518">
+        <v>60</v>
+      </c>
+      <c r="G518">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>964</v>
+      </c>
+      <c r="B519" t="s">
+        <v>648</v>
+      </c>
+      <c r="C519" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D519" t="s">
+        <v>822</v>
+      </c>
+      <c r="E519">
+        <v>20</v>
+      </c>
+      <c r="F519">
+        <v>60</v>
+      </c>
+      <c r="G519">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>965</v>
+      </c>
+      <c r="B520" t="s">
+        <v>649</v>
+      </c>
+      <c r="C520" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D520" t="s">
+        <v>822</v>
+      </c>
+      <c r="E520">
+        <v>20</v>
+      </c>
+      <c r="F520">
+        <v>60</v>
+      </c>
+      <c r="G520">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>966</v>
+      </c>
+      <c r="B521" t="s">
+        <v>650</v>
+      </c>
+      <c r="C521" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D521" t="s">
+        <v>825</v>
+      </c>
+      <c r="E521">
+        <v>20</v>
+      </c>
+      <c r="F521">
+        <v>60</v>
+      </c>
+      <c r="G521">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>967</v>
+      </c>
+      <c r="B522" t="s">
+        <v>651</v>
+      </c>
+      <c r="C522" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D522" t="s">
+        <v>823</v>
+      </c>
+      <c r="E522">
+        <v>20</v>
+      </c>
+      <c r="F522">
+        <v>60</v>
+      </c>
+      <c r="G522">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>968</v>
+      </c>
+      <c r="B523" t="s">
+        <v>652</v>
+      </c>
+      <c r="C523" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D523" t="s">
+        <v>826</v>
+      </c>
+      <c r="E523">
+        <v>20</v>
+      </c>
+      <c r="F523">
+        <v>60</v>
+      </c>
+      <c r="G523">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>969</v>
+      </c>
+      <c r="B524" t="s">
+        <v>653</v>
+      </c>
+      <c r="C524" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D524" t="s">
+        <v>823</v>
+      </c>
+      <c r="E524">
+        <v>20</v>
+      </c>
+      <c r="F524">
+        <v>60</v>
+      </c>
+      <c r="G524">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>970</v>
+      </c>
+      <c r="B525" t="s">
+        <v>654</v>
+      </c>
+      <c r="C525" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D525" t="s">
+        <v>822</v>
+      </c>
+      <c r="E525">
+        <v>20</v>
+      </c>
+      <c r="F525">
+        <v>60</v>
+      </c>
+      <c r="G525">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>971</v>
+      </c>
+      <c r="B526" t="s">
+        <v>655</v>
+      </c>
+      <c r="C526" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D526" t="s">
+        <v>825</v>
+      </c>
+      <c r="E526">
+        <v>20</v>
+      </c>
+      <c r="F526">
+        <v>60</v>
+      </c>
+      <c r="G526">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>972</v>
+      </c>
+      <c r="B527" t="s">
+        <v>656</v>
+      </c>
+      <c r="C527" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D527" t="s">
+        <v>822</v>
+      </c>
+      <c r="E527">
+        <v>20</v>
+      </c>
+      <c r="F527">
+        <v>60</v>
+      </c>
+      <c r="G527">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>973</v>
+      </c>
+      <c r="B528" t="s">
+        <v>657</v>
+      </c>
+      <c r="C528" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D528" t="s">
+        <v>822</v>
+      </c>
+      <c r="E528">
+        <v>20</v>
+      </c>
+      <c r="F528">
+        <v>60</v>
+      </c>
+      <c r="G528">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>974</v>
+      </c>
+      <c r="B529" t="s">
+        <v>658</v>
+      </c>
+      <c r="C529" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D529" t="s">
+        <v>822</v>
+      </c>
+      <c r="E529">
+        <v>20</v>
+      </c>
+      <c r="F529">
+        <v>60</v>
+      </c>
+      <c r="G529">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>975</v>
+      </c>
+      <c r="B530" t="s">
+        <v>659</v>
+      </c>
+      <c r="C530" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D530" t="s">
+        <v>822</v>
+      </c>
+      <c r="E530">
+        <v>20</v>
+      </c>
+      <c r="F530">
+        <v>60</v>
+      </c>
+      <c r="G530">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>976</v>
+      </c>
+      <c r="B531" t="s">
+        <v>660</v>
+      </c>
+      <c r="C531" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D531" t="s">
+        <v>826</v>
+      </c>
+      <c r="E531">
+        <v>20</v>
+      </c>
+      <c r="F531">
+        <v>60</v>
+      </c>
+      <c r="G531">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>977</v>
+      </c>
+      <c r="B532" t="s">
+        <v>661</v>
+      </c>
+      <c r="C532" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D532" t="s">
+        <v>826</v>
+      </c>
+      <c r="E532">
+        <v>20</v>
+      </c>
+      <c r="F532">
+        <v>60</v>
+      </c>
+      <c r="G532">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>978</v>
+      </c>
+      <c r="B533" t="s">
+        <v>662</v>
+      </c>
+      <c r="C533" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D533" t="s">
+        <v>824</v>
+      </c>
+      <c r="E533">
+        <v>20</v>
+      </c>
+      <c r="F533">
+        <v>60</v>
+      </c>
+      <c r="G533">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>979</v>
+      </c>
+      <c r="B534" t="s">
+        <v>663</v>
+      </c>
+      <c r="C534" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D534" t="s">
+        <v>826</v>
+      </c>
+      <c r="E534">
+        <v>20</v>
+      </c>
+      <c r="F534">
+        <v>60</v>
+      </c>
+      <c r="G534">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>980</v>
+      </c>
+      <c r="B535" t="s">
+        <v>664</v>
+      </c>
+      <c r="C535" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D535" t="s">
+        <v>822</v>
+      </c>
+      <c r="E535">
+        <v>20</v>
+      </c>
+      <c r="F535">
+        <v>60</v>
+      </c>
+      <c r="G535">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>981</v>
+      </c>
+      <c r="B536" t="s">
+        <v>665</v>
+      </c>
+      <c r="C536" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D536" t="s">
+        <v>823</v>
+      </c>
+      <c r="E536">
+        <v>20</v>
+      </c>
+      <c r="F536">
+        <v>60</v>
+      </c>
+      <c r="G536">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>982</v>
+      </c>
+      <c r="B537" t="s">
+        <v>666</v>
+      </c>
+      <c r="C537" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D537" t="s">
+        <v>824</v>
+      </c>
+      <c r="E537">
+        <v>20</v>
+      </c>
+      <c r="F537">
+        <v>60</v>
+      </c>
+      <c r="G537">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>983</v>
+      </c>
+      <c r="B538" t="s">
+        <v>667</v>
+      </c>
+      <c r="C538" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D538" t="s">
+        <v>826</v>
+      </c>
+      <c r="E538">
+        <v>20</v>
+      </c>
+      <c r="F538">
+        <v>60</v>
+      </c>
+      <c r="G538">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>984</v>
+      </c>
+      <c r="B539" t="s">
+        <v>668</v>
+      </c>
+      <c r="C539" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D539" t="s">
+        <v>823</v>
+      </c>
+      <c r="E539">
+        <v>20</v>
+      </c>
+      <c r="F539">
+        <v>60</v>
+      </c>
+      <c r="G539">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>985</v>
+      </c>
+      <c r="B540" t="s">
+        <v>669</v>
+      </c>
+      <c r="C540" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D540" t="s">
+        <v>822</v>
+      </c>
+      <c r="E540">
+        <v>20</v>
+      </c>
+      <c r="F540">
+        <v>60</v>
+      </c>
+      <c r="G540">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>986</v>
+      </c>
+      <c r="B541" t="s">
+        <v>670</v>
+      </c>
+      <c r="C541" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D541" t="s">
+        <v>822</v>
+      </c>
+      <c r="E541">
+        <v>20</v>
+      </c>
+      <c r="F541">
+        <v>60</v>
+      </c>
+      <c r="G541">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>987</v>
+      </c>
+      <c r="B542" t="s">
+        <v>671</v>
+      </c>
+      <c r="C542" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D542" t="s">
+        <v>822</v>
+      </c>
+      <c r="E542">
+        <v>20</v>
+      </c>
+      <c r="F542">
+        <v>60</v>
+      </c>
+      <c r="G542">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>988</v>
+      </c>
+      <c r="B543" t="s">
+        <v>672</v>
+      </c>
+      <c r="C543" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D543" t="s">
+        <v>823</v>
+      </c>
+      <c r="E543">
+        <v>20</v>
+      </c>
+      <c r="F543">
+        <v>60</v>
+      </c>
+      <c r="G543">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>989</v>
+      </c>
+      <c r="B544" t="s">
+        <v>673</v>
+      </c>
+      <c r="C544" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D544" t="s">
+        <v>822</v>
+      </c>
+      <c r="E544">
+        <v>20</v>
+      </c>
+      <c r="F544">
+        <v>60</v>
+      </c>
+      <c r="G544">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>990</v>
+      </c>
+      <c r="B545" t="s">
+        <v>674</v>
+      </c>
+      <c r="C545" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D545" t="s">
+        <v>822</v>
+      </c>
+      <c r="E545">
+        <v>20</v>
+      </c>
+      <c r="F545">
+        <v>60</v>
+      </c>
+      <c r="G545">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>991</v>
+      </c>
+      <c r="B546" t="s">
+        <v>675</v>
+      </c>
+      <c r="C546" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D546" t="s">
+        <v>824</v>
+      </c>
+      <c r="E546">
+        <v>20</v>
+      </c>
+      <c r="F546">
+        <v>60</v>
+      </c>
+      <c r="G546">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>992</v>
+      </c>
+      <c r="B547" t="s">
+        <v>676</v>
+      </c>
+      <c r="C547" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D547" t="s">
+        <v>825</v>
+      </c>
+      <c r="E547">
+        <v>20</v>
+      </c>
+      <c r="F547">
+        <v>60</v>
+      </c>
+      <c r="G547">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>993</v>
+      </c>
+      <c r="B548" t="s">
+        <v>677</v>
+      </c>
+      <c r="C548" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D548" t="s">
+        <v>823</v>
+      </c>
+      <c r="E548">
+        <v>20</v>
+      </c>
+      <c r="F548">
+        <v>60</v>
+      </c>
+      <c r="G548">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>994</v>
+      </c>
+      <c r="B549" t="s">
+        <v>678</v>
+      </c>
+      <c r="C549" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D549" t="s">
+        <v>822</v>
+      </c>
+      <c r="E549">
+        <v>20</v>
+      </c>
+      <c r="F549">
+        <v>60</v>
+      </c>
+      <c r="G549">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>995</v>
+      </c>
+      <c r="B550" t="s">
+        <v>679</v>
+      </c>
+      <c r="C550" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D550" t="s">
+        <v>822</v>
+      </c>
+      <c r="E550">
+        <v>20</v>
+      </c>
+      <c r="F550">
+        <v>60</v>
+      </c>
+      <c r="G550">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>996</v>
+      </c>
+      <c r="B551" t="s">
+        <v>680</v>
+      </c>
+      <c r="C551" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D551" t="s">
+        <v>824</v>
+      </c>
+      <c r="E551">
+        <v>20</v>
+      </c>
+      <c r="F551">
+        <v>60</v>
+      </c>
+      <c r="G551">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>997</v>
+      </c>
+      <c r="B552" t="s">
+        <v>681</v>
+      </c>
+      <c r="C552" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D552" t="s">
+        <v>826</v>
+      </c>
+      <c r="E552">
+        <v>20</v>
+      </c>
+      <c r="F552">
+        <v>60</v>
+      </c>
+      <c r="G552">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>998</v>
+      </c>
+      <c r="B553" t="s">
+        <v>682</v>
+      </c>
+      <c r="C553" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D553" t="s">
+        <v>826</v>
+      </c>
+      <c r="E553">
+        <v>20</v>
+      </c>
+      <c r="F553">
+        <v>60</v>
+      </c>
+      <c r="G553">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>999</v>
+      </c>
+      <c r="B554" t="s">
+        <v>683</v>
+      </c>
+      <c r="C554" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D554" t="s">
+        <v>822</v>
+      </c>
+      <c r="E554">
+        <v>20</v>
+      </c>
+      <c r="F554">
+        <v>60</v>
+      </c>
+      <c r="G554">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B555" t="s">
+        <v>684</v>
+      </c>
+      <c r="C555" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D555" t="s">
+        <v>826</v>
+      </c>
+      <c r="E555">
+        <v>20</v>
+      </c>
+      <c r="F555">
+        <v>60</v>
+      </c>
+      <c r="G555">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B556" t="s">
+        <v>685</v>
+      </c>
+      <c r="C556" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D556" t="s">
+        <v>826</v>
+      </c>
+      <c r="E556">
+        <v>20</v>
+      </c>
+      <c r="F556">
+        <v>60</v>
+      </c>
+      <c r="G556">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B557" t="s">
+        <v>686</v>
+      </c>
+      <c r="C557" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D557" t="s">
+        <v>822</v>
+      </c>
+      <c r="E557">
+        <v>20</v>
+      </c>
+      <c r="F557">
+        <v>60</v>
+      </c>
+      <c r="G557">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B558" t="s">
+        <v>482</v>
+      </c>
+      <c r="C558" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D558" t="s">
+        <v>826</v>
+      </c>
+      <c r="E558">
+        <v>20</v>
+      </c>
+      <c r="F558">
+        <v>60</v>
+      </c>
+      <c r="G558">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B559" t="s">
+        <v>687</v>
+      </c>
+      <c r="C559" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D559" t="s">
+        <v>824</v>
+      </c>
+      <c r="E559">
+        <v>20</v>
+      </c>
+      <c r="F559">
+        <v>60</v>
+      </c>
+      <c r="G559">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B560" t="s">
+        <v>688</v>
+      </c>
+      <c r="C560" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D560" t="s">
+        <v>822</v>
+      </c>
+      <c r="E560">
+        <v>20</v>
+      </c>
+      <c r="F560">
+        <v>60</v>
+      </c>
+      <c r="G560">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B561" t="s">
+        <v>689</v>
+      </c>
+      <c r="C561" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D561" t="s">
+        <v>823</v>
+      </c>
+      <c r="E561">
+        <v>20</v>
+      </c>
+      <c r="F561">
+        <v>60</v>
+      </c>
+      <c r="G561">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B562" t="s">
+        <v>690</v>
+      </c>
+      <c r="C562" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D562" t="s">
+        <v>824</v>
+      </c>
+      <c r="E562">
+        <v>20</v>
+      </c>
+      <c r="F562">
+        <v>60</v>
+      </c>
+      <c r="G562">
         <v>20</v>
       </c>
     </row>
@@ -12555,13 +16380,13 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="35.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="35.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" customWidth="1"/>
-    <col min="2" max="2" width="85.77734375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="85.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>843</v>
       </c>
@@ -12569,7 +16394,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>845</v>
       </c>
@@ -12577,19 +16402,19 @@
         <v>846</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="3" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="3" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>849</v>
       </c>
@@ -12597,19 +16422,19 @@
         <v>850</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>853</v>
       </c>
@@ -12617,19 +16442,19 @@
         <v>854</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>857</v>
       </c>
@@ -12637,13 +16462,13 @@
         <v>858</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
         <v>860</v>
@@ -12668,9 +16493,9 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>841</v>
       </c>
@@ -12684,7 +16509,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>830</v>
       </c>
@@ -12698,7 +16523,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>834</v>
       </c>
@@ -12712,7 +16537,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>842</v>
       </c>
